--- a/CR - Cost Report/BOM/FR/FRA0500_FRA0700/FRA0500_FRA0700.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0500_FRA0700/FRA0500_FRA0700.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josselin\Desktop\EPSA\Optimus\Cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josselin\Desktop\Asso\EPSA\Optimus\STUF2019\STUF2019\CR - Cost Report\BOM\FR\FRA0500_FRA0700\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9436AB55-5452-4790-B1E0-59044CDB1C07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CC7F8-A31A-4E26-BCB5-08F1ED47B60C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2543" yWindow="2543" windowWidth="18000" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>System</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Side plate over the middle side plate, next to impact attenuator</t>
+  </si>
+  <si>
+    <t>Push clips</t>
+  </si>
+  <si>
+    <t>Attachement of the noze to the frame</t>
+  </si>
+  <si>
+    <t>FR_07007</t>
   </si>
 </sst>
 </file>
@@ -579,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -803,6 +812,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
